--- a/zeitplan.xlsx
+++ b/zeitplan.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\SkyDrive\Studium\4. Semester\Deadalus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Recherche und Materialbeschaffung</t>
   </si>
@@ -125,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,21 +424,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
@@ -451,14 +446,15 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1">
         <v>18</v>
       </c>
@@ -493,7 +489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -521,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -535,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -552,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -560,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -571,31 +567,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15">
       <c r="D20">
         <v>17</v>
       </c>
@@ -633,7 +615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -644,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -658,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -672,17 +654,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -693,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -707,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -715,12 +697,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -731,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -742,22 +724,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="B34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -774,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -812,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -826,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -834,9 +816,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="M41" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
